--- a/문서/기획/Gaia 어플리케이션 설계-폰 DB.xlsx
+++ b/문서/기획/Gaia 어플리케이션 설계-폰 DB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\reGaia\문서\기획\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="23085" windowHeight="10065"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="23085" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1-2-100-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-13-1-170-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,13 +284,17 @@
     <t>페널티 점수, 미세먼지, 천재지변의 항목은
 꽃에 상관없이 동일하게 적용되므로
 DB에 넣지않고 함수에서 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-2-100-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,14 +1107,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1138,52 +1146,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,119 +1230,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,18 +1626,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1647,86 +1652,86 @@
   <sheetData>
     <row r="3" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="6" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="101"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
       <c r="S7" s="28"/>
       <c r="Y7" s="32"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="102"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="61"/>
       <c r="S8" s="28"/>
       <c r="Y8" s="32"/>
     </row>
     <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="102"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
       <c r="S9" s="28"/>
       <c r="Y9" s="32"/>
     </row>
     <row r="10" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="72" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="72" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="102"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="61"/>
       <c r="S10" s="28"/>
       <c r="Y10" s="32"/>
     </row>
     <row r="11" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1736,25 +1741,25 @@
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64"/>
       <c r="S11" s="28"/>
       <c r="Y11" s="32"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="87"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="20" t="s">
         <v>13</v>
       </c>
@@ -1764,11 +1769,11 @@
       <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="89"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -1778,21 +1783,21 @@
       <c r="Y12" s="32"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="87"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="20"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -1802,19 +1807,19 @@
       <c r="Y13" s="32"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="87"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="20"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
@@ -1824,11 +1829,11 @@
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1838,20 +1843,20 @@
       <c r="G15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
+      <c r="H15" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="69"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21" t="s">
         <v>9</v>
       </c>
@@ -1861,26 +1866,26 @@
       <c r="G16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="71" t="s">
-        <v>53</v>
+      <c r="H16" s="68" t="s">
+        <v>52</v>
       </c>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
-      <c r="L16" s="70"/>
+      <c r="L16" s="85"/>
     </row>
     <row r="21" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="63" t="s">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="25" t="s">
         <v>2</v>
       </c>
@@ -1891,11 +1896,11 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="11">
         <v>1</v>
       </c>
@@ -1905,21 +1910,21 @@
       <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="104"/>
     </row>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="22" t="s">
         <v>26</v>
       </c>
@@ -1929,53 +1934,53 @@
       <c r="G24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="92"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="22"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="98"/>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="22"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
     </row>
     <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="22">
         <v>300</v>
       </c>
@@ -1985,21 +1990,21 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="92"/>
     </row>
     <row r="28" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="22">
         <v>0</v>
       </c>
@@ -2009,21 +2014,21 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="92"/>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="33" t="s">
         <v>34</v>
       </c>
@@ -2033,169 +2038,199 @@
       <c r="G29" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="95"/>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="63" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="63" t="s">
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="91" t="s">
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="94"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="87"/>
     </row>
     <row r="37" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
+      <c r="N38" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="N38" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="40"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="66" t="s">
+      <c r="C39" s="75"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="96" t="s">
+      <c r="F39" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="G39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="H39" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="43"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="91"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="44"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="24" t="s">
+      <c r="F40" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="G40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="H40" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="89"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="44"/>
+    </row>
+    <row r="41" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="61"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-    </row>
-    <row r="41" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="71" t="s">
+      <c r="C41" s="69"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="23" t="s">
+      <c r="F41" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="G41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="H41" s="88" t="s">
         <v>62</v>
-      </c>
-      <c r="H41" s="97" t="s">
-        <v>63</v>
       </c>
       <c r="I41" s="69"/>
       <c r="J41" s="69"/>
       <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="46"/>
+      <c r="L41" s="85"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H25:M26"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="N38:R41"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="B12:D12"/>
@@ -2212,36 +2247,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H25:M26"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H27:M27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/기획/Gaia 어플리케이션 설계-폰 DB.xlsx
+++ b/문서/기획/Gaia 어플리케이션 설계-폰 DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,66 @@
   </si>
   <si>
     <t>1-1-2-100-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penaltyTime(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcloudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lcloudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rcloudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,16 +1178,133 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,22 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1197,48 +1359,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,76 +1377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1432,7 +1495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1634,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Y41"/>
+  <dimension ref="B3:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1652,77 +1715,77 @@
   <sheetData>
     <row r="3" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
     </row>
     <row r="6" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="58"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
       <c r="S7" s="28"/>
       <c r="Y7" s="32"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="28"/>
       <c r="Y8" s="32"/>
     </row>
     <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
       <c r="S9" s="28"/>
       <c r="Y9" s="32"/>
     </row>
     <row r="10" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="54" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="54" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="28"/>
       <c r="Y10" s="32"/>
     </row>
@@ -1731,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1741,16 +1804,16 @@
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
       <c r="S11" s="28"/>
       <c r="Y11" s="32"/>
     </row>
@@ -1759,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="20" t="s">
         <v>13</v>
       </c>
@@ -1773,7 +1836,7 @@
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="89"/>
+      <c r="L12" s="53"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -1787,17 +1850,17 @@
         <v>23</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="20"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -1811,15 +1874,15 @@
         <v>22</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="20"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
@@ -1829,11 +1892,11 @@
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1843,20 +1906,20 @@
       <c r="G15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="92"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="21" t="s">
         <v>9</v>
       </c>
@@ -1866,26 +1929,26 @@
       <c r="G16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="85"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="21" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="71" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="25" t="s">
         <v>2</v>
       </c>
@@ -1896,11 +1959,11 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="11">
         <v>1</v>
       </c>
@@ -1910,14 +1973,14 @@
       <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="H23" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="104"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="77" t="s">
@@ -1934,12 +1997,12 @@
       <c r="G24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="92"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="77" t="s">
@@ -1950,14 +2013,14 @@
       <c r="E25" s="22"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="96" t="s">
+      <c r="H25" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="98"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="77" t="s">
@@ -1968,12 +2031,12 @@
       <c r="E26" s="22"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="77" t="s">
@@ -1990,14 +2053,14 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="92"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="77" t="s">
@@ -2014,21 +2077,21 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="92"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="77" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="78"/>
-      <c r="D29" s="84"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="33" t="s">
         <v>34</v>
       </c>
@@ -2038,41 +2101,41 @@
       <c r="G29" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="95"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="71" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="71" t="s">
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="35" t="s">
         <v>64</v>
       </c>
@@ -2080,47 +2143,47 @@
         <v>43</v>
       </c>
       <c r="G34" s="37"/>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="87"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="37" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="71" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="71" t="s">
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
-      <c r="N38" s="39" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="41"/>
+      <c r="N38" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="50"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="74" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="75"/>
-      <c r="D39" s="91"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="38" t="s">
         <v>46</v>
       </c>
@@ -2136,19 +2199,19 @@
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
       <c r="K39" s="75"/>
-      <c r="L39" s="91"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
+      <c r="L39" s="76"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="83"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="51" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="52"/>
-      <c r="D40" s="89"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="24" t="s">
         <v>54</v>
       </c>
@@ -2158,25 +2221,25 @@
       <c r="G40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="90" t="s">
+      <c r="H40" s="73" t="s">
         <v>57</v>
       </c>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
-      <c r="L40" s="89"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="44"/>
+      <c r="L40" s="53"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="83"/>
     </row>
     <row r="41" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="85"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="23" t="s">
         <v>59</v>
       </c>
@@ -2186,51 +2249,328 @@
       <c r="G41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="88" t="s">
+      <c r="H41" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="85"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="47"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="44"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="86"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>300</v>
+      </c>
+      <c r="D47">
+        <v>120</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>480</v>
+      </c>
+      <c r="D48">
+        <v>192</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>900</v>
+      </c>
+      <c r="D49">
+        <v>360</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>24</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1200</v>
+      </c>
+      <c r="D50">
+        <v>480</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>1800</v>
+      </c>
+      <c r="D51">
+        <v>720</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H25:M26"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
     <mergeCell ref="N38:R41"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="B12:D12"/>
@@ -2247,6 +2587,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H25:M26"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/기획/Gaia 어플리케이션 설계-폰 DB.xlsx
+++ b/문서/기획/Gaia 어플리케이션 설계-폰 DB.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\다운로드\카카오톡받은파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\reGaia\문서\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="23085" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23085" windowHeight="10005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DB(꽃, 스킬)" sheetId="3" r:id="rId2"/>
     <sheet name="DB(스킬 데이터~)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
   <si>
     <t>꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,14 @@
   </si>
   <si>
     <t>shower rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨에 따른 물 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,15 +1642,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,22 +1834,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1712,48 +1861,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1761,111 +1874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2211,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2227,86 +2235,86 @@
   <sheetData>
     <row r="3" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="160"/>
     </row>
     <row r="6" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N7" s="97" t="s">
+      <c r="N7" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="116"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="163"/>
       <c r="S7" s="25"/>
       <c r="Y7" s="26"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="N8" s="117"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="119"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="166"/>
       <c r="S8" s="25"/>
       <c r="Y8" s="26"/>
     </row>
     <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N9" s="117"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="119"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="166"/>
       <c r="S9" s="25"/>
       <c r="Y9" s="26"/>
     </row>
     <row r="10" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="112" t="s">
+      <c r="C10" s="121"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="119"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="166"/>
       <c r="S10" s="25"/>
       <c r="Y10" s="26"/>
     </row>
     <row r="11" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -2316,25 +2324,25 @@
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="158"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="169"/>
       <c r="S11" s="25"/>
       <c r="Y11" s="26"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="18" t="s">
         <v>8</v>
       </c>
@@ -2344,11 +2352,11 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="143"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -2358,21 +2366,21 @@
       <c r="Y12" s="26"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="18"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="149" t="s">
+      <c r="H13" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="151"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="116"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
@@ -2382,19 +2390,19 @@
       <c r="Y13" s="26"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="18"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -2404,11 +2412,11 @@
       <c r="Y14" s="26"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="40">
         <v>50</v>
       </c>
@@ -2418,13 +2426,13 @@
       <c r="G15" s="42">
         <v>100000000</v>
       </c>
-      <c r="H15" s="123" t="s">
+      <c r="H15" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="145"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="107"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -2434,11 +2442,11 @@
       <c r="Y15" s="26"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="125"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="40">
         <v>1</v>
       </c>
@@ -2448,13 +2456,13 @@
       <c r="G16" s="42">
         <v>100000</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="145"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -2464,11 +2472,11 @@
       <c r="Y16" s="26"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="43" t="s">
         <v>39</v>
       </c>
@@ -2478,20 +2486,20 @@
       <c r="G17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="145"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="128"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="46">
         <v>0</v>
       </c>
@@ -2501,26 +2509,26 @@
       <c r="G18" s="48">
         <v>200</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="141"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="129" t="s">
+      <c r="B24" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="130"/>
-      <c r="G24" s="131"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="22" t="s">
         <v>2</v>
       </c>
@@ -2531,11 +2539,11 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="9">
         <v>1</v>
       </c>
@@ -2545,21 +2553,21 @@
       <c r="G25" s="8">
         <v>3</v>
       </c>
-      <c r="H25" s="155" t="s">
+      <c r="H25" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="157"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="146"/>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
       <c r="E26" s="19" t="s">
         <v>18</v>
       </c>
@@ -2569,53 +2577,53 @@
       <c r="G26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="145"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="107"/>
     </row>
     <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
       <c r="E27" s="19"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="151"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
     </row>
     <row r="28" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
       <c r="E28" s="19"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="154"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="119"/>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="19">
         <v>300</v>
       </c>
@@ -2625,21 +2633,21 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="123" t="s">
+      <c r="H29" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="145"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="107"/>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
       <c r="E30" s="19">
         <v>0</v>
       </c>
@@ -2649,21 +2657,21 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="123" t="s">
+      <c r="H30" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="145"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="107"/>
     </row>
     <row r="31" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="140"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="27" t="s">
         <v>26</v>
       </c>
@@ -2673,41 +2681,41 @@
       <c r="G31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="146" t="s">
+      <c r="H31" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="148"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="143"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="129" t="s">
+      <c r="C35" s="121"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="130"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="131"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="160"/>
-      <c r="D36" s="162"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="58">
         <v>1</v>
       </c>
@@ -2717,23 +2725,23 @@
       <c r="G36" s="60">
         <v>2</v>
       </c>
-      <c r="H36" s="159" t="s">
+      <c r="H36" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="161"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="128"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="164"/>
-      <c r="D37" s="165"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="61">
         <v>1</v>
       </c>
@@ -2743,20 +2751,20 @@
       <c r="G37" s="63">
         <v>25</v>
       </c>
-      <c r="H37" s="163" t="s">
+      <c r="H37" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="166"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="133"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="164"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="132"/>
       <c r="E38" s="61">
         <v>2</v>
       </c>
@@ -2766,20 +2774,20 @@
       <c r="G38" s="63">
         <v>1</v>
       </c>
-      <c r="H38" s="163" t="s">
+      <c r="H38" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="166"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="133"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="61">
         <v>100</v>
       </c>
@@ -2789,20 +2797,20 @@
       <c r="G39" s="63">
         <v>150</v>
       </c>
-      <c r="H39" s="163" t="s">
+      <c r="H39" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="166"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="133"/>
     </row>
     <row r="40" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="126" t="s">
+      <c r="B40" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="139"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="64">
         <v>12</v>
       </c>
@@ -2812,47 +2820,47 @@
       <c r="G40" s="66">
         <v>2000</v>
       </c>
-      <c r="H40" s="142" t="s">
+      <c r="H40" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="141"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="103"/>
     </row>
     <row r="43" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="129" t="s">
+      <c r="C44" s="121"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="131"/>
-      <c r="N44" s="97" t="s">
+      <c r="F44" s="121"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="122"/>
+      <c r="N44" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="99"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="139"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="144"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
       <c r="E45" s="39">
         <v>1</v>
       </c>
@@ -2862,25 +2870,25 @@
       <c r="G45" s="17">
         <v>5</v>
       </c>
-      <c r="H45" s="132" t="s">
+      <c r="H45" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="144"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="102"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="125"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="154"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="145"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="107"/>
       <c r="E46" s="52">
         <v>300</v>
       </c>
@@ -2890,25 +2898,25 @@
       <c r="G46" s="54">
         <v>1800</v>
       </c>
-      <c r="H46" s="123" t="s">
+      <c r="H46" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="145"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="102"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="107"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="153"/>
+      <c r="P46" s="153"/>
+      <c r="Q46" s="153"/>
+      <c r="R46" s="154"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="143"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="21">
         <v>120</v>
       </c>
@@ -2918,25 +2926,25 @@
       <c r="G47" s="13">
         <v>720</v>
       </c>
-      <c r="H47" s="169" t="s">
+      <c r="H47" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="171"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="102"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="110"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="153"/>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="153"/>
+      <c r="R47" s="154"/>
     </row>
     <row r="48" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="126" t="s">
+      <c r="B48" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="127"/>
-      <c r="D48" s="141"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="20">
         <v>1</v>
       </c>
@@ -2946,43 +2954,43 @@
       <c r="G48" s="12">
         <v>3</v>
       </c>
-      <c r="H48" s="172"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="173"/>
-      <c r="L48" s="174"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="105"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="113"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="156"/>
+      <c r="Q48" s="156"/>
+      <c r="R48" s="157"/>
     </row>
     <row r="51" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="129" t="s">
+      <c r="B52" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="129" t="s">
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="131"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="122"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="133"/>
-      <c r="D53" s="144"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="125"/>
       <c r="E53" s="39">
         <v>1</v>
       </c>
@@ -2992,20 +3000,20 @@
       <c r="G53" s="17">
         <v>4</v>
       </c>
-      <c r="H53" s="132" t="s">
+      <c r="H53" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="144"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="125"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="124"/>
-      <c r="D54" s="145"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="107"/>
       <c r="E54" s="52">
         <v>15</v>
       </c>
@@ -3015,20 +3023,20 @@
       <c r="G54" s="54">
         <v>16</v>
       </c>
-      <c r="H54" s="149" t="s">
+      <c r="H54" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="151"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="116"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="109" t="s">
+      <c r="B55" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="143"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
       <c r="E55" s="21">
         <v>25</v>
       </c>
@@ -3038,18 +3046,18 @@
       <c r="G55" s="13">
         <v>30</v>
       </c>
-      <c r="H55" s="152"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="154"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="119"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="127"/>
-      <c r="D56" s="141"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="103"/>
       <c r="E56" s="20">
         <v>8</v>
       </c>
@@ -3059,40 +3067,40 @@
       <c r="G56" s="12">
         <v>4</v>
       </c>
-      <c r="H56" s="167" t="s">
+      <c r="H56" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="141"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="103"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="129" t="s">
+      <c r="C60" s="121"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="130"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="131"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="122"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="132" t="s">
+      <c r="B61" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="133"/>
-      <c r="D61" s="144"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="39">
         <v>1</v>
       </c>
@@ -3102,20 +3110,20 @@
       <c r="G61" s="17">
         <v>5</v>
       </c>
-      <c r="H61" s="132" t="s">
+      <c r="H61" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="133"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="144"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="125"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="145"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="107"/>
       <c r="E62" s="52">
         <v>12345</v>
       </c>
@@ -3125,20 +3133,20 @@
       <c r="G62" s="54">
         <v>234</v>
       </c>
-      <c r="H62" s="123" t="s">
+      <c r="H62" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="145"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="107"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="110"/>
-      <c r="D63" s="143"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
       <c r="E63" s="21">
         <v>3</v>
       </c>
@@ -3148,20 +3156,20 @@
       <c r="G63" s="13">
         <v>5</v>
       </c>
-      <c r="H63" s="168" t="s">
+      <c r="H63" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="110"/>
-      <c r="L63" s="143"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="99"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="126" t="s">
+      <c r="B64" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="127"/>
-      <c r="D64" s="141"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="103"/>
       <c r="E64" s="20">
         <v>0</v>
       </c>
@@ -3171,13 +3179,13 @@
       <c r="G64" s="12">
         <v>15</v>
       </c>
-      <c r="H64" s="167" t="s">
+      <c r="H64" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="141"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="103"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
@@ -3215,6 +3223,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="N44:R48"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N7:R11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H27:M28"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="H63:L63"/>
     <mergeCell ref="B64:D64"/>
@@ -3231,70 +3303,6 @@
     <mergeCell ref="H60:L60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="H61:L61"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H27:M28"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="N44:R48"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N7:R11"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3304,17 +3312,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
@@ -3617,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>116</v>
       </c>
@@ -3639,6 +3647,22 @@
       </c>
       <c r="E21">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
